--- a/guizhou0714/DLMPs.xlsx
+++ b/guizhou0714/DLMPs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\matlabfile\2024\guizhou\1103\SL_P2P\guizhou0714\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\guizhou0714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1342BA9-F60C-45CA-BA43-EEE6624B85AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3671A37B-C4E9-45FA-9EC5-17A01A50A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11112" windowHeight="6336" xr2:uid="{23D0E819-7290-44F4-9EEC-8D95607FE5FE}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9960" xr2:uid="{23D0E819-7290-44F4-9EEC-8D95607FE5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,9 +389,9 @@
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.36000000000000004</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.36000000000000004</v>
       </c>
@@ -494,31 +494,31 @@
         <v>0.36900000000000005</v>
       </c>
       <c r="J2">
-        <v>29.586000000000006</v>
+        <v>9.5859999999999985</v>
       </c>
       <c r="K2">
-        <v>29.522999999999996</v>
+        <v>9.5229999999999997</v>
       </c>
       <c r="L2">
-        <v>29.487000000000002</v>
+        <v>9.4869999999999983</v>
       </c>
       <c r="M2">
-        <v>29.433000000000014</v>
+        <v>9.4329999999999998</v>
       </c>
       <c r="N2">
-        <v>29.397000000000006</v>
+        <v>9.3969999999999985</v>
       </c>
       <c r="O2">
-        <v>29.361000000000011</v>
+        <v>9.3610000000000007</v>
       </c>
       <c r="P2">
-        <v>29.325000000000003</v>
+        <v>9.3249999999999993</v>
       </c>
       <c r="Q2">
-        <v>29.361000000000011</v>
+        <v>9.3610000000000007</v>
       </c>
       <c r="R2">
-        <v>29.406000000000006</v>
+        <v>9.4059999999999988</v>
       </c>
       <c r="S2">
         <v>0.52200000000000013</v>
@@ -539,7 +539,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.36000000000000004</v>
       </c>
@@ -613,7 +613,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.36000000000000004</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.36000000000000004</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.36000000000000004</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.36000000000000004</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.36000000000000004</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.36000000000000004</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.36000000000000004</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.36000000000000004</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.36000000000000004</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.36000000000000004</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.36000000000000004</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.36000000000000004</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.36000000000000004</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.36000000000000004</v>
       </c>
